--- a/biology/Médecine/Philippe_Chaslin/Philippe_Chaslin.xlsx
+++ b/biology/Médecine/Philippe_Chaslin/Philippe_Chaslin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Chaslin, né le 14 février 1857 et décédé le 26 juillet 1923 est un aliéniste français et psychiatre, il va décrire la "folie discordante" synonyme de schizophrénie.
 </t>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aliéniste à l'Hôpital de la Salpêtrière, grand spécialiste de la nosologie française et allemande, on lui doit notamment la description et l'étude de la confusion mentale. Il fut un des premiers à s'opposer vigoureusement à la théorie alors en vogue de la dégénérescence dans l'étiologie des troubles mentaux.
-Sa carrière débute en 1887 à l'hôpital Bicêtre, puis à partir de 1910 à la Salpêtrière jusqu'en 1922[1],[2].
+Sa carrière débute en 1887 à l'hôpital Bicêtre, puis à partir de 1910 à la Salpêtrière jusqu'en 1922,.
 En 1917 il devient président de la Société médico-psychologique.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Travaux sur la schizophrénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait de la non-congruence un des symptômes majeurs de la schizophrénie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait de la non-congruence un des symptômes majeurs de la schizophrénie.
 </t>
         </is>
       </c>
